--- a/Data/Manila Standard Online/New/Extracted_Links.xlsx
+++ b/Data/Manila Standard Online/New/Extracted_Links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,78 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PH won’t block Interpol arrest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/news/314479369/ph-wont-block-interpol-arrest.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Speaker brings biggest Bagong Pilipinas caravan to Tacloban</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/news/314479380/speaker-brings-biggest-bagong-pilipinas-caravan-to-tacloban.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Russia frees US reporter in major prisoner swap with West</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/news/314479324/russia-frees-us-reporter-in-major-prisoner-swap-with-west.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tanker’s oil siphoning delayed for 2 weeks</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/news/314479367/tankers-oil-siphoning-delayed-for-2-weeks.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Starbucks profits fall again but CEO says turnaround underway</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/news/314478528/starbucks-profits-fall-again-but-ceo-says-turnaround-underway.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UnionBank’s second-quarter income surged by more than 50% to P3.1b</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://manilastandard.net/business/314477863/unionbanks-second-quarter-income-surged-by-more-than-50-to-p3-1b.html</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Manila Standard Online/New/Extracted_Links.xlsx
+++ b/Data/Manila Standard Online/New/Extracted_Links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,2346 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>US scraps plea deal with 9/11 mastermind</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479992/us-scraps-plea-deal-with-9-11-mastermind.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bangladesh students call for nationwide civil disobedience</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479990/bangladesh-students-call-for-nationwide-civil-disobedience.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vietnam’s Communist Party names To Lam top leader</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479988/vietnams-communist-party-names-to-lam-top-leader.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trump agrees to debate Harris on September 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479977/trump-agrees-to-debate-harris-on-september-4.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hawaii announces $4b settlement in wildfire lawsuits</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479974/hawaii-announces-4b-settlement-in-wildfire-lawsuits.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Google pulls AI ad that irked some Olympics viewers</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479972/google-pulls-ai-ad-that-irked-some-olympics-viewers-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>At least two dead after landslides in southwest China</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479968/at-least-two-dead-after-landslides-in-southwest-china.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dr. Henry Lim Bon Liong dies at 72</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479995/dr-henry-lim-bon-liong-dies-at-72.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triathlon training scrapped due to dirty Seine  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479866/triathlon-training-scrapped-due-to-dirty-seine.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Boxing body offers prize money to beaten Italian amid gender row</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479860/boxing-body-offers-prize-money-to-beaten-italian-amid-gender-row.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UP Alumni Association announces 2024 top awardees</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479857/up-alumni-association-announces-2024-top-awardees.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Marcos issues EO to increase salary, allowance of gov’t workers</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479854/marcos-issues-eo-to-increase-salary-allowance-of-govt-workers.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DFA puts Bangladesh under Alert Level 1 over ongoing unrest</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479849/dfa-puts-bangladesh-under-alert-level-1-over-ongoing-unrest.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Google pulls AI ad that irked some Olympics viewers</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479840/google-pulls-ai-ad-that-irked-some-olympics-viewers.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>US to deploy more warships, fighter jets to Mideast</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479833/us-to-deploy-more-warships-fighter-jets-to-mideast.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6.8-magnitude earthquake hits off Philippines’ Mindanao—USGS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479830/6-8-magnitude-earthquake-hits-off-philippines-mindanao-usgs.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Harris secures Democratic presidential nomination</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479806/harris-secures-democratic-presidential-nomination.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Japan, PH hold first joint naval exercise</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479512/japan-ph-hold-first-joint-naval-exercise.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marcos names Aldeguer-Roque as acting DTI secretary</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479467/marcos-names-aldeguer-roque-as-acting-dti-secretary.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DOF ready to defend legality of PhilHealth fund transfer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479794/dof-ready-to-defend-legality-of-philhealth-fund-transfer.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P1.26b in gov’t services given to folks in Samar, Leyte, Biliran</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479796/p1-26b-in-govt-services-given-to-folks-in-samar-leyte-biliran.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Over 350K Cavite folk affected by oil spill—OCD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479800/over-350k-cavite-folk-affected-by-oil-spill-ocd.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>US Defense Secretary assessed industrial capability in Subic Bay</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479457/us-defense-secretary-assessed-industrial-capability-in-subic-bay.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>President’s net satisfaction rating bounces back—SWS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479781/presidents-net-satisfaction-rating-bounces-back-sws.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Marcos cites journalists’ role in fighting fake news</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479760/marcos-cites-journalists-role-in-fighting-fake-news.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bato defies ICC drug war probe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479514/bato-defies-icc-drug-war-probe.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30k POGO workers set for deportation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479755/30k-pogo-workers-set-for-deportation.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Solon eyes evacuation centers at municipal level to spare schools</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479753/solon-eyes-evacuation-centers-at-municipal-level-to-spare-schools.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triathlon training scrapped due to dirty Seine  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479866/triathlon-training-scrapped-due-to-dirty-seine.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Boxing body offers prize money to beaten Italian amid gender row</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479860/boxing-body-offers-prize-money-to-beaten-italian-amid-gender-row.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Richardson targets Olympic 100m glory as Biles hunts more gold</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479844/richardson-targets-olympic-100m-glory-as-biles-hunts-more-gold.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Taiwan boxer in Olympics gender row wins as controversy rages</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479842/taiwan-boxer-in-olympics-gender-row-wins-as-controversy-rages.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>6.8-magnitude earthquake hits off Philippines’ Mindanao—USGS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/top-stories/314479830/6-8-magnitude-earthquake-hits-off-philippines-mindanao-usgs.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Japan, PH hold first joint naval exercise</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/top-stories/314479512/japan-ph-hold-first-joint-naval-exercise.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Marcos names Aldeguer-Roque as acting DTI secretary</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/top-stories/314479467/marcos-names-aldeguer-roque-as-acting-dti-secretary.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PH won’t block Interpol arrest</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/top-stories/314479369/ph-wont-block-interpol-arrest.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Speaker brings biggest Bagong Pilipinas caravan to Tacloban</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/top-stories/314479380/speaker-brings-biggest-bagong-pilipinas-caravan-to-tacloban.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Philippines, United States to sign military intel pact by end of 2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314478994/philippines-united-states-to-sign-military-intel-pact-by-end-of-2024.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cavite coastal towns under calamity state</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314478604/cavite-coastal-towns-under-calamity-state.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>House OKs motorcycles-for-hire bill</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479497/house-oks-motorcycles-for-hire-bill.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Public-private pacts to address climate impact</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479624/public-private-pacts-to-address-climate-impact.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Seafarers’ magna carta to help create more jobs</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479622/seafarers-magna-carta-to-help-create-more-jobs.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BI deports 67 Chinese illegally working in PH</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479620/bi-deports-67-chinese-illegally-working-in-ph.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Japan, Philippines hold first joint naval exercise</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479532/japan-philippines-hold-first-joint-naval-exercise.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Marcos vows stronger bilateral cooperation with Japan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479530/marcos-vows-stronger-bilateral-cooperation-with-japan.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Philippines says Chinatown fire kills 11</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479502/philippines-says-chinatown-fire-kills-11.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lawmaker eyes local job facilitation offices for PWDs, seniors</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479500/lawmaker-eyes-local-job-facilitation-offices-for-pwds-seniors.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Philippine fighter jets complete LFE simulation at Pitch Black 2024 military exercise</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479476/philippine-fighter-jets-complete-lfe-simulation-at-pitch-black-2024-military-exercise.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DFA chief set to visit Mongolia, South Korea</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479465/dfa-chief-set-to-visit-mongolia-south-korea.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AFP reports no sightings of Chinese vessels in maritime activities of Philippines and United States</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479445/afp-reports-no-sightings-of-chinese-vessels-in-maritime-activities-of-philippines-and-united-states.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Vietnamese fishing vessel sinks in West Philippine Sea</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479434/vietnamese-fishing-vessel-sinks-in-west-philippine-sea.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Biden, Harris greet US prisoners freed in swap</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479636/biden-harris-greet-us-prisoners-freed-in-swap.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Iran, allies plan joint but lean retaliation vs. Israel</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479633/iran-allies-plan-joint-but-lean-retaliation-vs-israel.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>South Korea says no response from North on flood aid offer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479632/south-korea-says-no-response-from-north-on-flood-aid-offer.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Indian army teams scour landslide site that killed 200 for possible survivors</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479637/indian-army-teams-scour-landslide-site-that-killed-200-for-possible-survivors.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Japan sees hottest July in 126 years</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479631/japan-sees-hottest-july-in-126-years.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Trump revives ‘birtherism’ as Harris gains in polls</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479630/trump-revives-birtherism-as-harris-gains-in-polls.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Slow down to save the planet, says Japan’s rock star philosopher Saito</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479586/slow-down-to-save-the-planet-says-japans-rock-star-philosopher-saito.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Biden, Harris greet US prisoners released in huge swap with Russia</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479504/biden-harris-greet-us-prisoners-released-in-huge-swap-with-russia.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Starmer warns social media firms to uphold law over misinformation</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479331/starmer-warns-social-media-firms-to-uphold-law-over-misinformation.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>French cabbies seek payout for lost Olympics revenue</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479124/french-cabbies-seek-payout-for-lost-olympics-revenue.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Carina’s warning bells</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/opinion/314479583/carinas-warning-bells.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Blinken, Austin: Get out, stay out!</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/opinion/314479575/blinken-austin-get-out-stay-out.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>When Harry met AR: The bromance no one saw coming</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/opinion/314479567/when-harry-met-ar-the-bromance-no-one-saw-coming.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>‘Black and proud’: Harris has never shied away from racial identity</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/opinion/314479550/black-and-proud-harris-has-never-shied-away-from-racial-identity.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Carina’s cruelty</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/opinion/314475733/carinas-cruelty.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Omega Healthcare embraces DEI to attract talents, sustain loyalty</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479944/omega-healthcare-embraces-dei-to-attract-talents-sustain-loyalty.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Holcim Philippines appoints new CEO with proven track record and focus on sustainability</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479942/holcim-philippines-appoints-new-ceo-with-proven-track-record-and-focus-on-sustainability.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PisoPay partners with AllBank for QR payment</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479939/pisopay-partners-with-allbank-for-qr-payment.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Business accelerator unveils new set of cohorts</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479916/business-accelerator-unveils-new-set-of-cohorts.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BPI celebrates 173 years of banking excellence, customer obsession</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479699/bpi-celebrates-173-years-of-banking-excellence-customer-obsession.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ayala, MUFG investments boost GCash value to $5b</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479713/ayala-mufg-investments-boost-gcash-value-to-5b.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CIAC, Pampanga university team up for food hub</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479712/ciac-pampanga-university-team-up-for-food-hub.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Recto asks BIR to boost tax haul, meet P3.05-t target</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479704/recto-asks-bir-to-boost-tax-haul-meet-p3-05-t-target.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Seven-month investments jumped 65% to P1.15t—BOI</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479708/seven-month-investments-jumped-65-to-p1-15t-boi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NCR office space stock expanded 3.2% in Q2</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479709/ncr-office-space-stock-expanded-3-2-in-q2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>URC announces exit from China market</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479703/urc-announces-exit-from-china-market.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PH stocks fall amid sell-offs; peso rises to 58.08 a dollar</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479700/ph-stocks-fall-amid-sell-offs-peso-rises-to-58-08-a-dollar.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Semirara’s profit dropped 41% to P6b in 2nd quarter</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479676/semiraras-profit-dropped-41-to-p6b-in-2nd-quarter.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Meralco relocates power lines affected by rail projects</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479675/meralco-relocates-power-lines-affected-by-rail-projects.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Technical working group formed to study FMD vaccine production</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479674/technical-working-group-formed-to-study-fmd-vaccine-production.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Anti-trust body signs lease to establish office at UP Diliman</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479673/anti-trust-body-signs-lease-to-establish-office-at-up-diliman.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ayala’s electronics unit incurred $8.8-million loss in first half</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479579/ayalas-electronics-unit-incurred-8-8-million-loss-in-first-half.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hexaware opens new delivery center in Manila</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479552/hexaware-opens-new-delivery-center-in-manila.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Japan’s MUFG invests in GCash, pushes app’s valuation to $5 billion</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479460/japans-mufg-invests-in-gcash-pushes-apps-valuation-to-5-billion.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PH predicted to expand 6.1% annually until 2034</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314479296/ph-predicted-to-expand-6-1-annually-until-2034.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PNB posted 5.6% profit growth to P10b in first half</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314477915/pnb-posted-5-6-profit-growth-to-p10b-in-first-half.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Technical working group formed to study FMD vaccine production</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/csr-mining/314479674/technical-working-group-formed-to-study-fmd-vaccine-production.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Aboitiz units support communities with bakery livelihood kits</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/business/314474147/aboitiz-units-support-communities-with-bakery-livelihood-kits.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Baguio Midland Courier still available at stalls</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479746/baguio-midland-courier-still-available-at-stalls.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2 provinces tackle poverty</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479751/2-provinces-tackle-poverty.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Taguig cops nab 10 most wanted suspects in city</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479744/taguig-cops-nab-10-most-wanted-suspects-in-city.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tacloban flight delayed over bomb joke</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479749/tacloban-flight-delayed-over-bomb-joke.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CamSur farmers forge ties with Army’s 9th ID</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479742/camsur-farmers-forge-ties-with-armys-9th-id.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MinDA’s help sought to resolve power crisis</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314479618/mindas-help-sought-to-resolve-power-crisis.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Focus on recovery from oil spill, not on blame game – group</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479629/focus-on-recovery-from-oil-spill-not-on-blame-game-group.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Belmonte improves education assistance for Quezon City scholars</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479482/belmonte-improves-education-assistance-for-quezon-city-scholars.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Taguig placed under state of calamity</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479462/taguig-placed-under-state-of-calamity.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BJMP Western Visayas calls for more jail facilities and guards amid rising congestion</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314478851/bjmp-western-visayas-calls-for-more-jail-facilities-and-guards-amid-rising-congestion.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>65-MW solar PV power plant to be built in Negros Occidental</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lgu/314477818/65-mw-solar-pv-power-plant-to-be-built-in-negros-occidental.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Palawan Group of Companies expands payment solution services for AFPMBAI members</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479909/palawan-group-of-companies-expands-payment-solution-services-for-afpmbai-members.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TNT and Maya join forces to launch ‘TNT Alkansya’, encouraging Filipinos to start saving</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479901/tnt-and-maya-join-forces-to-launch-tnt-alkansya-encouraging-filipinos-to-start-saving.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>The Redmi Pad Pro 5G arrives in the Philippines</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479883/the-redmi-pad-pro-5g-arrives-in-the-philippines.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Philcom expands in VITRO Clark and Sta. Rosa data centers</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479667/philcom-expands-in-vitro-clark-and-sta-rosa-data-centers.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Blacklist International new lineup debuts at Greenwich Gaming Convention</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479662/blacklist-international-new-lineup-debuts-at-greenwich-gaming-convention.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Accenture: Digital core investments accelerate reinvention, innovation</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479601/accenture-digital-core-investments-accelerate-reinvention-innovation.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Palawan Group, eTap to simplify transactions for Palawan Pay users</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479599/palawan-group-etap-to-simplify-transactions-for-palawan-pay-users.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Xiaomi introduces OpenWear Stereo wireless earbuds</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479597/xiaomi-introduces-openwear-stereo-wireless-earbuds.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Prioritizing cancer control: Prevention, screening, advanced treatment</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479596/prioritizing-cancer-control-prevention-screening-advanced-treatment.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>How businesses can upskill their cybersecurity workforce</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479592/how-businesses-can-upskill-their-cybersecurity-workforce.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Trend Micro to spotlight evolving tech at DECODE</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479591/trend-micro-to-spotlight-evolving-tech-at-decode.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Canon’s top of the line EOS R system camera geared to ace the action</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479590/canons-top-of-the-line-eos-r-system-camera-geared-to-ace-the-action.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Canva acquires Leonardo.AI to bring leading visual AI to all</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479589/canva-acquires-leonardo-ai-to-bring-leading-visual-ai-to-all.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TCL’s biggest anniversary treat presents epic C655 QLED TV deals</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479404/tcls-biggest-anniversary-treat-presents-epic-c655-qled-tv-deals.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>HONOR Magic6 Pro now available via Globe Postpaid Plans for as low as P2,499 monthly</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479401/honor-magic6-pro-now-available-via-globe-postpaid-plans-for-as-low-as-p2499-monthly.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Gear Up for Success: Lenovo’s back-to-school promo offers unmatched devices with premium freebies</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479396/gear-up-for-success-lenovos-back-to-school-promo-offers-unmatched-devices-with-premium-freebies.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>OPPO A60 makes for a durable and efficient everyday companion for working-class Filipinos</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314479391/oppo-a60-makes-for-a-durable-and-efficient-everyday-companion-for-working-class-filipinos.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WOW! Fiesta taps singing sensation JV Decena as new brand ambassador</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/tech/314474014/wow-fiesta-taps-singing-sensation-jv-decena-as-new-brand-ambassador.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>From scrap to treasure: How EV makers are reviving used batteries</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479966/from-scrap-to-treasure-how-ev-makers-are-reviving-used-batteries.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>An Industry Trifecta</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479962/an-industry-trifecta.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BYD, AC Mobility to donate $100 to Typhoon ‘Carina’ relief for each Sealion 6 DM-i sold</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479960/byd-ac-mobility-to-donate-100-to-typhoon-carina-relief-for-each-sealion-6-dm-i-sold.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Chevrolet surges back with HARI’s bold vision</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479958/chevrolet-surges-back-with-haris-bold-vision.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>JMC establishes presence in Mindanao with Davao dealership opening</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479955/jmc-establishes-presence-in-mindanao-with-davao-dealership-opening.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ford extends repair discounts to assist Typhoon ‘Carina’ victims</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314479946/ford-extends-repair-discounts-to-assist-typhoon-carina-victims.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ZF streamlines operations amid global EV shift</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314477024/zf-streamlines-operations-amid-global-ev-shift.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>The Electric Dilemma</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314477002/the-electric-dilemma.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>A high speed spectacle to start 10th TOYOTA GAZOO Racing Philippine Cup season</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314474143/a-high-speed-spectacle-to-start-10th-toyota-gazoo-racing-philippine-cup-season.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>VinFast accelerates Philippine expansion with first three dealerships in Metro Manila</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314474140/vinfast-accelerates-philippine-expansion-with-first-three-dealerships-in-metro-manila.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>JAC Motors Philippines gears up for strong growth</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314474135/jac-motors-philippines-gears-up-for-strong-growth.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CAMPI: Get ready for the 9th Philippine International Motor Show</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/wheels-more-motoring-quarterly/314474133/campi-get-ready-for-the-9th-philippine-international-motor-show.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PUMA puts fitness enthusiasts back into competitive sporting life with the Deviate NITRO Elite 3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/314479888/puma-puts-fitness-enthusiasts-back-into-competitive-sporting-life-with-the-deviate-nitro-elite-3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BingoPlus donates P15 million to worthy causes</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/314479865/bingoplus-donates-p15-million-to-worthy-causes.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>San Juan extends win-run; Batangas, Davao triumph</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/314479682/san-juan-extends-win-run-batangas-davao-triumph.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RTU captures four arnis golds</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/314479679/rtu-captures-four-arnis-golds.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Dominant Gialon sweeps JPGT Davao titles</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/314479672/dominant-gialon-sweeps-jpgt-davao-titles.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Paris 2024: Hatch lags behind in men’s 100m butterfly heats</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479527/paris-2024-hatch-lags-behind-in-mens-100m-butterfly-heats.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Villegas gets best birthday gift with shock win over 2nd seed Boualam</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/sports-headlines/fightsports/314479384/villegas-gets-best-birthday-gift-with-shock-win-over-2nd-seed-boualam.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>With honor, dignity and pride</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/sports-headlines/sports-columns/314479387/with-honor-dignity-and-pride.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Petecio seeks quarterfinals slot in bout vs. hometown bet</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/sports-headlines/fightsports/314479389/petecio-seeks-quarterfinals-slot-in-bout-vs-hometown-bet-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Villegas gets best birthday gift with shock win over 2nd seed Boualam</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479384/villegas-gets-best-birthday-gift-with-shock-win-over-2nd-seed-boualam.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Petecio seeks quarterfinals slot in bout vs. hometown bet</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/paris-olympics/314479389/petecio-seeks-quarterfinals-slot-in-bout-vs-hometown-bet-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tolentino declares ROTC Luzon Games open</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/sports-headlines/314477673/tolentino-declares-rotc-luzon-games-open.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>All set for another exciting AFAD Arms Show</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sports/sports-headlines/sports-plus/314478189/all-set-for-another-exciting-afad-arms-show.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Film on ‘nepo babies’ supports flood victims with red carpet event</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/tv-movies/314479964/film-on-nepo-babies-supports-flood-victims-with-red-carpet-event.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>New anthems that stir emotions and inspire freedom</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/music-concerts/314479940/new-anthems-that-stir-emotions-and-inspire-freedom.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>‘Yes or No?’: Can we file a case for a neglected child?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/tv-movies/314479784/yes-or-no-can-we-file-a-case-for-a-neglected-child.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>‘Iti Mapukpukaw’ wins Special Jury Mention at Fantasia International Film Festival</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/tv-movies/314479774/iti-mapukpukaw-wins-special-jury-mention-at-fantasia-international-film-festival.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Cardi B files for divorce from husband Offset</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/celebrity-profiles/314479764/cardi-b-files-for-divorce-from-husband-offset.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Gwy Saludes’ ‘University Series’</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479543/gwy-saludes-university-series.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Docu on Philippine cinema legends screen at Ayala Malls Manila Bay</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479540/docu-on-philippine-cinema-legends-screen-at-ayala-malls-manila-bay.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Angeline Quinto sings for K-Drama</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479537/angeline-quinto-sings-for-k-drama.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Britney biopic in works as Universal buys memoir rights</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/news/314479522/britney-biopic-in-works-as-universal-buys-memoir-rights.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NewJeans to return to Manila for Coke’s ‘Ultimate Fandom Concert’</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479286/newjeans-to-return-to-manila-for-cokes-ultimate-fandom-concert.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Gabbi Garcia teases upcoming international film with Hollywood star Scott Adkins</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479267/gabbi-garcia-teases-upcoming-international-film-with-hollywood-star-scott-adkins.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GMA Network addresses Sandro Muhlach harassment allegations  </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479106/gma-network-addresses-sandro-muhlach-harassment-allegations.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>The Script to return to Manila next year</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479300/the-script-to-return-to-manila-next-year.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Netflix drops release date for ‘Squid Game’ season 2</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479002/netflix-drops-release-date-for-squid-game-season-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Binibining Pilipinas International 2024 Myrna Esguerra shares journey to receiving college diploma</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314478925/binibining-pilipinas-international-2024-myrna-esguerra-shares-journey-to-receiving-college-diploma.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Britney biopic in works as Universal buys memoir rights</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314479522/britney-biopic-in-works-as-universal-buys-memoir-rights.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EXO’s Baekhyun expresses love for Jollibee in recent vlog</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314477264/exos-baekhyun-expresses-love-for-jollibee-in-recent-vlog.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>How #RP612fic continues to be internet’s favorite way of celebrating Philippine Independence Day</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/showbitz/314458671/how-rp612fic-continues-to-be-internets-favorite-way-of-celebrating-philippine-independence-day.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Operation Buklod-Buklod Provides Relief to 200 Families After Typhoon CarinaPH</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479818/operation-buklod-buklod-provides-relief-to-200-families-after-typhoon-carinaph.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sustainable Development and Climate Justice: A Balanced Approach</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479812/sustainable-development-and-climate-justice-a-balanced-approach.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>#SMWasteFreeFuture aims to promote good practices for better waste segregation</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479736/smwastefreefuture-aims-to-promote-good-practices-for-better-waste-segregation.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Angel’s Pizza Achieves Record Sales on GrabFood in 1st Half of 2024</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479730/angels-pizza-achieves-record-sales-on-grabfood-in-1st-half-of-2024.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Fast Retailing Philippines Announces Strategic, Human-Centric UNIQLO Logistics Facility with Federal Land NRE Global Inc. at Riverpark North, Cavite</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479494/fast-retailing-philippines-announces-strategic-human-centric-uniqlo-logistics-facility-with-federal-land-nre-global-inc-at-riverpark-north-cavite.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To eat or not to eat: Health risks of Mukbang explained </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479490/to-eat-or-not-to-eat-health-risks-of-mukbang-explained.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Back-To-School Expenses? Here are 4 Tipid Tips to Follow</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479487/back-to-school-expenses-here-are-4-tipid-tips-to-follow.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Lalamove to set up typhoon relief operations for farmers in recently launched Baguio City serviceable area</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/spotlight/314479484/lalamove-to-set-up-typhoon-relief-operations-for-farmers-in-recently-launched-baguio-city-serviceable-area.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magazine show explores new travel goals </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/travel-and-leisure/314479956/magazine-show-explores-new-travel-goals.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Samsung fest lights up BGC with top Asian talent</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/sunday-young-life/314479915/samsung-fest-lights-up-bgc-with-top-asian-talent.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fashion stylist launches exclusive line on leading shopping app</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/fashion/314479908/fashion-stylist-launches-exclusive-line-on-leading-shopping-app.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Experience the Olympics with Google</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/arts-life/314479882/experience-the-olympics-with-google.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Boracay hotel secures Family Star at Travel Excellence Awards</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/hospitality/314479880/boracay-hotel-secures-family-star-at-travel-excellence-awards.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>City of Dreams Manila lauded for customer service, luxury standards</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314479878/city-of-dreams-manila-lauded-for-customer-service-luxury-standards.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Create cherished memories with friends</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/hospitality/314479868/create-cherished-memories-with-friends.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NHCP, QC LGU mark 80th death anniversary of Manuel Quezon</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/arts-life/314479779/nhcp-qc-lgu-mark-80th-death-anniversary-of-manuel-quezon.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>TONI&amp;GUY turns heads with 60 years of cutting-edge style</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314479545/toniguy-turns-heads-with-60-years-of-cutting-edge-style.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>IQOS Club members immerse in sensory extravaganza</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314479542/iqos-club-members-immerse-in-sensory-extravaganza.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PH, Korea foster relations through national sports demonstration</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314479277/ph-korea-foster-relations-through-national-sports-demonstration.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Historical commission celebrates Apolinario Mabini’s 160th birth anniversary</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314475850/historical-commission-celebrates-apolinario-mabinis-160th-birth-anniversary.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Alliance Française de Manille opens photo exhibiton national athletes’ journey</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314475267/alliance-francaise-de-manille-opens-photo-exhibiton-national-athletes-journey.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BTS’ Jin is Fred Jewelry’s bling king</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314469266/bts-jin-is-fred-jewelrys-bling-king.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>The extraordinary works of Arturo Luz</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/lifestyle/314466683/the-extraordinary-works-of-arturo-luz.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Flood control</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479804/flood-control-3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Recovery operations</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479802/recovery-operations.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Pretty as a postcard</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479654/pretty-as-a-postcard-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024 census</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479717/2024-census-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Disaster response</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479715/disaster-response.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Love your lungs</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479652/love-your-lungs.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BARMM Report</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479691/barmm-report.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Halal summit</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479677/halal-summit.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Lab for all</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479345/lab-for-all-4.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Job chase</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479353/job-chase-3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://manilastandard.net/gallery/314479323/demolition-5.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
